--- a/www.eia.gov/electricity/monthly/xls/table_a_3_b.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_a_3_b.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
     <t>Table A.3.B. Relative Standard Error (Percent) for Net Generation by Fuel Type:</t>
   </si>
   <si>
-    <t>Independent Power Producers by Census Division and State, Year-to-Date through October 2016</t>
+    <t>Independent Power Producers by Census Division and State, Year-to-Date through November 2016</t>
   </si>
   <si>
     <t>Census Region and State</t>
@@ -1207,14 +1207,14 @@
         <v>0</v>
       </c>
       <c r="C4" s="6">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
         <v>2</v>
       </c>
-      <c r="D4" s="6">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
-        <v>1</v>
-      </c>
       <c r="F4" s="6">
         <v>0</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="6">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="8">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -1248,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="8">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1259,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="8">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
       </c>
       <c r="E6" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="8">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="8">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1285,13 +1285,13 @@
         <v>0</v>
       </c>
       <c r="C7" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" s="8">
         <v>0</v>
       </c>
       <c r="E7" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F7" s="8">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="8">
-        <v>70</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="8">
-        <v>711</v>
+        <v>22</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="8">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1337,13 +1337,13 @@
         <v>0</v>
       </c>
       <c r="C9" s="8">
-        <v>255</v>
+        <v>29</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
       </c>
       <c r="E9" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9" s="8">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="8">
-        <v>883</v>
+        <v>989</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="8">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1386,10 +1386,10 @@
         <v>17</v>
       </c>
       <c r="B11" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="6">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D11" s="6">
         <v>0</v>
@@ -1398,13 +1398,13 @@
         <v>1</v>
       </c>
       <c r="F11" s="6">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="G11" s="6">
         <v>0</v>
       </c>
       <c r="H11" s="6">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1415,13 +1415,13 @@
         <v>0</v>
       </c>
       <c r="C12" s="8">
-        <v>34</v>
+        <v>229</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
       </c>
       <c r="E12" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" s="8">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="8">
-        <v>389</v>
+        <v>886</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="C13" s="8">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
       </c>
       <c r="E13" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" s="8">
         <v>0</v>
@@ -1456,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="8">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1464,10 +1464,10 @@
         <v>20</v>
       </c>
       <c r="B14" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" s="8">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
@@ -1476,13 +1476,13 @@
         <v>1</v>
       </c>
       <c r="F14" s="8">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="G14" s="8">
         <v>0</v>
       </c>
       <c r="H14" s="8">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1502,13 +1502,13 @@
         <v>1</v>
       </c>
       <c r="F15" s="6">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G15" s="6">
         <v>0</v>
       </c>
       <c r="H15" s="6">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="8">
-        <v>96</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="8">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F17" s="8">
         <v>0</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="8">
-        <v>90</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="8">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>1</v>
       </c>
       <c r="F19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G19" s="8">
         <v>0</v>
       </c>
       <c r="H19" s="8">
-        <v>135</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="8">
-        <v>0.4</v>
+        <v>0.18</v>
       </c>
       <c r="F20" s="8">
         <v>0</v>
@@ -1638,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="8">
-        <v>93</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1646,16 +1646,16 @@
         <v>27</v>
       </c>
       <c r="B21" s="6">
-        <v>323</v>
+        <v>186</v>
       </c>
       <c r="C21" s="6">
-        <v>68</v>
+        <v>438</v>
       </c>
       <c r="D21" s="6">
         <v>0</v>
       </c>
       <c r="E21" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F21" s="6">
         <v>0</v>
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="6">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1675,13 +1675,13 @@
         <v>0</v>
       </c>
       <c r="C22" s="8">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D22" s="8">
         <v>0</v>
       </c>
       <c r="E22" s="8">
-        <v>5274</v>
+        <v>12508</v>
       </c>
       <c r="F22" s="8">
         <v>0</v>
@@ -1690,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="8">
-        <v>374</v>
+        <v>449</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="8">
-        <v>408</v>
+        <v>354</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1727,13 +1727,13 @@
         <v>0</v>
       </c>
       <c r="C24" s="8">
-        <v>69</v>
+        <v>500</v>
       </c>
       <c r="D24" s="8">
         <v>0</v>
       </c>
       <c r="E24" s="8">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F24" s="8">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="8">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1750,16 +1750,16 @@
         <v>31</v>
       </c>
       <c r="B25" s="8">
-        <v>323</v>
+        <v>186</v>
       </c>
       <c r="C25" s="8">
-        <v>2029</v>
+        <v>2159</v>
       </c>
       <c r="D25" s="8">
         <v>0</v>
       </c>
       <c r="E25" s="8">
-        <v>481</v>
+        <v>9</v>
       </c>
       <c r="F25" s="8">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="8">
-        <v>558</v>
+        <v>594</v>
       </c>
       <c r="D26" s="8">
         <v>0</v>
@@ -1805,13 +1805,13 @@
         <v>1</v>
       </c>
       <c r="C27" s="6">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D27" s="6">
         <v>0</v>
       </c>
       <c r="E27" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27" s="6">
         <v>0</v>
@@ -1820,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="6">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1831,13 +1831,13 @@
         <v>0</v>
       </c>
       <c r="C28" s="8">
-        <v>294</v>
+        <v>431</v>
       </c>
       <c r="D28" s="8">
         <v>0</v>
       </c>
       <c r="E28" s="8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F28" s="8">
         <v>0</v>
@@ -1883,13 +1883,13 @@
         <v>0</v>
       </c>
       <c r="C30" s="8">
-        <v>161</v>
+        <v>343</v>
       </c>
       <c r="D30" s="8">
         <v>0</v>
       </c>
       <c r="E30" s="8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F30" s="8">
         <v>0</v>
@@ -1909,13 +1909,13 @@
         <v>0</v>
       </c>
       <c r="C31" s="8">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="D31" s="8">
         <v>0</v>
       </c>
       <c r="E31" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F31" s="8">
         <v>0</v>
@@ -1924,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="8">
-        <v>581</v>
+        <v>506</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1935,13 +1935,13 @@
         <v>0</v>
       </c>
       <c r="C32" s="8">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D32" s="8">
         <v>0</v>
       </c>
       <c r="E32" s="8">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F32" s="8">
         <v>0</v>
@@ -1950,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="8">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1958,10 +1958,10 @@
         <v>39</v>
       </c>
       <c r="B33" s="8">
-        <v>117</v>
+        <v>250</v>
       </c>
       <c r="C33" s="8">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="D33" s="8">
         <v>0</v>
@@ -1976,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="8">
-        <v>262</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1987,13 +1987,13 @@
         <v>0</v>
       </c>
       <c r="C34" s="8">
-        <v>2088</v>
+        <v>464</v>
       </c>
       <c r="D34" s="8">
         <v>0</v>
       </c>
       <c r="E34" s="8">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F34" s="8">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="8">
-        <v>217</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="C35" s="8">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="D35" s="8">
         <v>0</v>
@@ -2028,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="8">
-        <v>224</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -2045,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="8">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F36" s="8">
         <v>0</v>
@@ -2054,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="8">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -2065,13 +2065,13 @@
         <v>0</v>
       </c>
       <c r="C37" s="6">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D37" s="6">
         <v>0</v>
       </c>
       <c r="E37" s="6">
-        <v>0.28999999999999998</v>
+        <v>0</v>
       </c>
       <c r="F37" s="6">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="6">
-        <v>670</v>
+        <v>500</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -2091,13 +2091,13 @@
         <v>0</v>
       </c>
       <c r="C38" s="8">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D38" s="8">
         <v>0</v>
       </c>
       <c r="E38" s="8">
-        <v>0.28999999999999998</v>
+        <v>0</v>
       </c>
       <c r="F38" s="8">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="8">
-        <v>670</v>
+        <v>500</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2169,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="C41" s="8">
-        <v>727</v>
+        <v>774</v>
       </c>
       <c r="D41" s="8">
         <v>0</v>
@@ -2201,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="6">
-        <v>0.39</v>
+        <v>1</v>
       </c>
       <c r="F42" s="6">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="6">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -2236,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="8">
-        <v>275</v>
+        <v>217</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="8">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="F44" s="8">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="8">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="F46" s="8">
         <v>0</v>
@@ -2314,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="8">
-        <v>315</v>
+        <v>237</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -2325,13 +2325,13 @@
         <v>5</v>
       </c>
       <c r="C47" s="6">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D47" s="6">
         <v>0</v>
       </c>
       <c r="E47" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47" s="6">
         <v>0</v>
@@ -2340,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="H47" s="6">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2357,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="8">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F48" s="8">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>55</v>
       </c>
       <c r="B49" s="8">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="C49" s="8">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F49" s="8">
         <v>0</v>
@@ -2392,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="H49" s="8">
-        <v>68</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2409,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="8">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F50" s="8">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="H50" s="8">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -2435,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="8">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F51" s="8">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="8">
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2461,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F52" s="8">
         <v>0</v>
@@ -2470,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="8">
-        <v>232</v>
+        <v>289</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="E53" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F53" s="8">
         <v>0</v>
@@ -2504,16 +2504,16 @@
         <v>60</v>
       </c>
       <c r="B54" s="8">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C54" s="8">
-        <v>424</v>
+        <v>485</v>
       </c>
       <c r="D54" s="8">
         <v>0</v>
       </c>
       <c r="E54" s="8">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="F54" s="8">
         <v>0</v>
@@ -2522,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="H54" s="8">
-        <v>317</v>
+        <v>382</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -2530,7 +2530,7 @@
         <v>61</v>
       </c>
       <c r="B55" s="8">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C55" s="8">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="E55" s="8">
-        <v>815</v>
+        <v>1188</v>
       </c>
       <c r="F55" s="8">
         <v>0</v>
@@ -2548,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="H55" s="8">
-        <v>297</v>
+        <v>359</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2559,13 +2559,13 @@
         <v>0</v>
       </c>
       <c r="C56" s="6">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="D56" s="6">
         <v>0</v>
       </c>
       <c r="E56" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F56" s="6">
         <v>0</v>
@@ -2574,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="H56" s="6">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2585,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="C57" s="8">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="D57" s="8">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="H57" s="8">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="8">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2637,7 +2637,7 @@
         <v>0</v>
       </c>
       <c r="C59" s="8">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D59" s="8">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="H59" s="8">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2660,10 +2660,10 @@
         <v>66</v>
       </c>
       <c r="B60" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C60" s="6">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D60" s="6">
         <v>0</v>
@@ -2686,7 +2686,7 @@
         <v>67</v>
       </c>
       <c r="B61" s="8">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="C61" s="8">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C62" s="8">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D62" s="8">
         <v>0</v>
@@ -2741,22 +2741,22 @@
         <v>1</v>
       </c>
       <c r="C63" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D63" s="6">
         <v>0</v>
       </c>
       <c r="E63" s="6">
-        <v>0.34</v>
+        <v>0.47</v>
       </c>
       <c r="F63" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G63" s="6">
         <v>0</v>
       </c>
       <c r="H63" s="6">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
